--- a/biology/Écologie/Mégadiversité_biologique/Mégadiversité_biologique.xlsx
+++ b/biology/Écologie/Mégadiversité_biologique/Mégadiversité_biologique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9gadiversit%C3%A9_biologique</t>
+          <t>Mégadiversité_biologique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La mégadiversité biologique ou mégabiodiversité correspond à une région du globe qui concentre un nombre élevé d'espèces végétales et animales, le plus souvent endémiques.
 Ce concept a été proposé pour la première fois en 1988 à la Conférence sur la Biodiversité tenue à la Smithsonian Institution à Washington. 
@@ -500,7 +512,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9gadiversit%C3%A9_biologique</t>
+          <t>Mégadiversité_biologique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -518,9 +530,11 @@
           <t>Origines du concept</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'idée de « pays de mégadiversité » a été initiée par le primatologue américain Russell Alan Mittermeier en 1988[1]. Il a découvert que quatre pays comptaient, à eux seuls, les deux tiers des espèces de primates.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'idée de « pays de mégadiversité » a été initiée par le primatologue américain Russell Alan Mittermeier en 1988. Il a découvert que quatre pays comptaient, à eux seuls, les deux tiers des espèces de primates.
 </t>
         </is>
       </c>
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9gadiversit%C3%A9_biologique</t>
+          <t>Mégadiversité_biologique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,13 +563,15 @@
           <t>Pays mégadivers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces quatre premiers « pays de mégadiversité » étaient le Brésil, l'Indonésie, Madagascar et le Zaïre, devenu depuis la RDC. Avec ses collègues de Conservation International, Mittermeier a ensuite élargi la recherche aux autres mammifères, aux oiseaux, aux reptiles, aux amphibiens, aux insectes et aux plantes.
-Ses travaux ont été publiés dans un ouvrage de vulgarisation paru en 1997[2].
+Ses travaux ont été publiés dans un ouvrage de vulgarisation paru en 1997.
 La définition donnée par l'organisation Conservation International en 1997 concerne les pays qui abritent au moins 3 000 espèces (soit 1 %) de plantes vasculaires endémiques du monde.
 Avec ce critère, l'organisation américaine de protection de la nature reconnaissait 17 « pays de mégadiversité » en 1997.
-Depuis, le nombre des pays a été porté à 18 avec l'ajout de la France en raison du poids en espèces endémiques de ses DOM-TOM[1][source insuffisante].
+Depuis, le nombre des pays a été porté à 18 avec l'ajout de la France en raison du poids en espèces endémiques de ses DOM-TOM[source insuffisante].
 </t>
         </is>
       </c>
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9gadiversit%C3%A9_biologique</t>
+          <t>Mégadiversité_biologique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -585,6 +601,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
